--- a/file/flashCard.xlsx
+++ b/file/flashCard.xlsx
@@ -7,7 +7,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mỹ Khánh" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>english</t>
   </si>
@@ -79,6 +84,9 @@
   </si>
   <si>
     <t>Cái kéo rất sắc bén.</t>
+  </si>
+  <si>
+    <t>hhhh</t>
   </si>
 </sst>
 </file>
@@ -424,7 +432,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,4 +518,361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="76.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/file/flashCard.xlsx
+++ b/file/flashCard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mỹ Khánh" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>english</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>hhhh</t>
+  </si>
+  <si>
+    <t>antonym</t>
+  </si>
+  <si>
+    <t>test Antonym</t>
   </si>
 </sst>
 </file>
@@ -431,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +466,9 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -478,6 +486,9 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -524,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +564,9 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -581,10 +594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,9 +607,10 @@
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="50.28515625" customWidth="1"/>
     <col min="5" max="5" width="76.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +626,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -639,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +685,9 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,10 +749,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,9 +762,10 @@
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="64.140625" customWidth="1"/>
     <col min="5" max="5" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,8 +781,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -788,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +840,9 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
